--- a/biology/Médecine/Patients_(film)/Patients_(film).xlsx
+++ b/biology/Médecine/Patients_(film)/Patients_(film).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Patients est une comédie dramatique française réalisée par Fabien Marsaud, dit Grand Corps Malade et Mehdi Idir, sortie en 2017. Il s'agit de l'adaptation du roman autobiographique éponyme de Grand Corps Malade.
 </t>
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">À la suite d'un grave accident de sport dans une piscine, Ben, devenu tétraplégique incomplet, arrive dans un centre de rééducation. Il fait la rencontre d'autres handicapés (tétraplégiques, paraplégiques, traumatisés crâniens), tous victimes d'accidents, ainsi qu'une personne en situation de handicap depuis sa petite enfance. Entre impuissance, désespoir et résignation, dans la lutte quotidienne pour réapprendre à bouger un doigt ou tenir une fourchette, quelques-uns retrouvent lentement un peu de mobilité tandis que d'autres reçoivent le verdict du handicap à vie. Malgré tout, l'espoir et l'amitié les aident à supporter leurs difficultés.
 </t>
@@ -542,7 +556,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Titre original : Patients
@@ -557,7 +573,7 @@
 Production : Éric et Nicolas Altmayer et Jean-Rachid Kallouche ; Marc Ladreit de Lacharrière et Sidonie Dumas (coproducteurs)
 Sociétés de production : Mandarin Production et Kallouche Cinéma ; Gaumont et Fimalac (coproduction)
 Sociétés de distribution : Gaumont Distribution (France), MK2 MILE END ((Québec)
-Budget : 3 990 000 euros[1]
+Budget : 3 990 000 euros
 Pays d'origine :  France
 Langue originale : français
 Format : couleur
@@ -594,7 +610,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Pablo Pauly : Benjamin, « Ben »
@@ -645,16 +663,17 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pré-production
-Fabien Marsaud, connu sous le nom de Grand Corps Malade, met ici en scène son premier film, adapté de son roman autobiographique, qui raconte son année de rééducation dans un centre après son accident. Fadette Drouard, qui lui a conseillé de synthétiser son livre pour le film[2], l'aide pour le scénario.
+          <t>Pré-production</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fabien Marsaud, connu sous le nom de Grand Corps Malade, met ici en scène son premier film, adapté de son roman autobiographique, qui raconte son année de rééducation dans un centre après son accident. Fadette Drouard, qui lui a conseillé de synthétiser son livre pour le film, l'aide pour le scénario.
 Mehdi Idir, qui réalise les clips du chanteur, l'aide pour la mise en scène en tant que coréalisateur.
 Patients est tourné dans le centre où Fabien Marsaud a effectué sa rééducation. À l'époque où il s'y trouvait, ce lieu accueillait uniquement des personnes en situation de handicap lourd, ce qui n'est plus le cas aujourd'hui, et il est fréquent d'y croiser des patients marchant avec des béquilles. Dans le film, le chanteur de slam cherche à recréer l'univers qu'il a connu, à savoir un lieu dans lequel « tout le monde est en galère ».
 Plusieurs situations du film sont inspirées de ce que Fabien Marsaud a connu.
-La scène de la cantine est la plus compliquée à tourner puisque Fabien Marsaud et Mehdi Idir ont dû ajouter des dialogues, tout en gérant les acteurs, les cinquante figurants et un mouvement de caméra complexe qui démarrait en hauteur pour terminer sa course au niveau d'une table[3].
-Tournage
-La production et l'équipe du film ont tourné sept semaines au centre de soins de suite et de réadaptation spécialisés de Coubert dans le département de Seine-et-Marne[4].
-Musique
-La musique originale du film est composée par Angelo Foley. L'album contient par ailleurs des titres de Grand Corps Malade, des extraits du film ainsi que le Prélude No. 4 en mi mineur de Frédéric Chopin. Ce morceau avait été par ailleurs samplé par le Suprême NTM pour le titre That's My People, qui apparait dans le film mais n'est pas inclus sur l'album, tout comme The Message de Nas et Pas l'temps pour les regrets de Lunatic. On peut par ailleurs entendre brièvement Boxe avec les mots d'Ärsenik.
+La scène de la cantine est la plus compliquée à tourner puisque Fabien Marsaud et Mehdi Idir ont dû ajouter des dialogues, tout en gérant les acteurs, les cinquante figurants et un mouvement de caméra complexe qui démarrait en hauteur pour terminer sa course au niveau d'une table.
 </t>
         </is>
       </c>
@@ -680,19 +699,18 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Accueil</t>
+          <t>Production</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Promotion
-La bande-annonce est révélée le 11 janvier 2017 sur YouTube[6].
-Critique
-Le Parisien met au film une note de 5⁄5 : « Un magnifique hymne à la vie »[7].
-Télé 2 semaines lui attribue la même note : « Sur un sujet lourd, une bouleversante ode à la vie, à l'humour et à la fraternité »[8]
-Sur 29 titres de presse, le film obtient la note de 3,8⁄5[9].
-Box-office
-Lors des premières séances parisiennes, Patients réunit 73 614 spectateurs[11]. Pour son premier jour en France, le film recueille 309 303 entrées[11]. Après une semaine en France, il cumule 491 625 entrées[11].
+          <t>Tournage</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La production et l'équipe du film ont tourné sept semaines au centre de soins de suite et de réadaptation spécialisés de Coubert dans le département de Seine-et-Marne.
 </t>
         </is>
       </c>
@@ -718,12 +736,164 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>Production</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Musique</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La musique originale du film est composée par Angelo Foley. L'album contient par ailleurs des titres de Grand Corps Malade, des extraits du film ainsi que le Prélude No. 4 en mi mineur de Frédéric Chopin. Ce morceau avait été par ailleurs samplé par le Suprême NTM pour le titre That's My People, qui apparait dans le film mais n'est pas inclus sur l'album, tout comme The Message de Nas et Pas l'temps pour les regrets de Lunatic. On peut par ailleurs entendre brièvement Boxe avec les mots d'Ärsenik.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Patients_(film)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Patients_(film)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Accueil</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Promotion</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La bande-annonce est révélée le 11 janvier 2017 sur YouTube.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Patients_(film)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Patients_(film)</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Accueil</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Critique</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Parisien met au film une note de 5⁄5 : « Un magnifique hymne à la vie ».
+Télé 2 semaines lui attribue la même note : « Sur un sujet lourd, une bouleversante ode à la vie, à l'humour et à la fraternité »
+Sur 29 titres de presse, le film obtient la note de 3,8⁄5.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Patients_(film)</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Patients_(film)</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Accueil</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Box-office</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lors des premières séances parisiennes, Patients réunit 73 614 spectateurs. Pour son premier jour en France, le film recueille 309 303 entrées. Après une semaine en France, il cumule 491 625 entrées.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Patients_(film)</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Patients_(film)</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Festival du film de Sarlat 2016[12],[13]:
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Festival du film de Sarlat 2016,:
 Prix d'interprétation masculine (prix collectif pour l'ensemble des acteurs du film)
 Prix des Lycéens
 Salamandre d'or du meilleur film
